--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1111,7 +1111,7 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:authorString}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -1127,6 +1127,9 @@
     <t>titreObjectif</t>
   </si>
   <si>
+    <t>Titre de l'objectif</t>
+  </si>
+  <si>
     <t>Goal.note:titreObjectif.id</t>
   </si>
   <si>
@@ -1137,6 +1140,73 @@
   </si>
   <si>
     <t>Goal.note.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Goal Note</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer l'élément Goal.note.</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Goal.note:titreObjectif.author[x]</t>
@@ -1164,15 +1234,6 @@
     <t>Act.participant[typeCode=AUT].role</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.author[x]:authorString</t>
-  </si>
-  <si>
-    <t>authorString</t>
-  </si>
-  <si>
-    <t>Titre de l'objectif</t>
-  </si>
-  <si>
     <t>Goal.note:titreObjectif.time</t>
   </si>
   <si>
@@ -1223,21 +1284,33 @@
     <t>avisUsagerObjectif</t>
   </si>
   <si>
+    <t>Avis de l'usager sur l'objectif</t>
+  </si>
+  <si>
     <t>Goal.note:avisUsagerObjectif.id</t>
   </si>
   <si>
     <t>Goal.note:avisUsagerObjectif.extension</t>
   </si>
   <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
     <t>Goal.note:avisUsagerObjectif.author[x]</t>
   </si>
   <si>
-    <t>Goal.note:avisUsagerObjectif.author[x]:authorString</t>
-  </si>
-  <si>
-    <t>Avis de l'usager sur l'objectif</t>
-  </si>
-  <si>
     <t>Goal.note:avisUsagerObjectif.time</t>
   </si>
   <si>
@@ -1250,19 +1323,31 @@
     <t>strategieMiseEnOeuvreObjectif</t>
   </si>
   <si>
+    <t>Stratégie de mise en œuvre de l'objectif</t>
+  </si>
+  <si>
     <t>Goal.note:strategieMiseEnOeuvreObjectif.id</t>
   </si>
   <si>
     <t>Goal.note:strategieMiseEnOeuvreObjectif.extension</t>
   </si>
   <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
     <t>Goal.note:strategieMiseEnOeuvreObjectif.author[x]</t>
-  </si>
-  <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.author[x]:authorString</t>
-  </si>
-  <si>
-    <t>Stratégie de mise en œuvre de l'objectif</t>
   </si>
   <si>
     <t>Goal.note:strategieMiseEnOeuvreObjectif.time</t>
@@ -1607,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1616,8 +1701,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.89453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1641,7 +1726,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.48828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6252,7 +6337,7 @@
         <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>349</v>
@@ -6336,10 +6421,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6445,18 +6530,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6474,14 +6559,12 @@
         <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6548,7 +6631,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6556,18 +6639,20 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -6579,20 +6664,18 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6629,35 +6712,37 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6665,14 +6750,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6690,20 +6773,18 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6713,7 +6794,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -6752,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6764,13 +6845,13 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6778,10 +6859,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6792,7 +6873,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6801,16 +6882,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6849,37 +6930,37 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6887,10 +6968,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6910,25 +6991,27 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -6970,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -6982,13 +7065,13 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6996,14 +7079,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7024,20 +7105,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7046,7 +7123,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7061,13 +7138,11 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7085,13 +7160,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7100,10 +7175,10 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7111,10 +7186,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7134,18 +7209,20 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>166</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>167</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7194,7 +7271,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7206,13 +7283,13 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7220,21 +7297,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7243,20 +7320,18 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>172</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7293,37 +7368,37 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7331,10 +7406,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7342,7 +7417,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7357,17 +7432,15 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7404,20 +7477,22 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -7432,7 +7507,7 @@
         <v>130</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7440,13 +7515,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
@@ -7465,21 +7540,23 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7488,7 +7565,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7527,13 +7604,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7542,10 +7619,10 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7553,10 +7630,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7576,16 +7653,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>167</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7636,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>169</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7648,13 +7725,13 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>170</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7662,10 +7739,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7676,7 +7753,7 @@
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7685,16 +7762,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>383</v>
+        <v>134</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7733,37 +7810,37 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7771,20 +7848,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -7799,20 +7876,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7860,7 +7933,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7872,13 +7945,13 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7886,10 +7959,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7995,21 +8068,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8024,14 +8097,12 @@
         <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8098,7 +8169,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8106,10 +8177,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8117,7 +8188,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -8129,19 +8200,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8149,7 +8220,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -8179,20 +8250,22 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
@@ -8201,13 +8274,13 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8215,14 +8288,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8240,20 +8311,18 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8263,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8278,13 +8347,11 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8302,7 +8369,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8317,10 +8384,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8328,10 +8395,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8354,15 +8421,17 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8411,7 +8480,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8429,7 +8498,7 @@
         <v>130</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8437,10 +8506,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8448,7 +8517,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -8463,13 +8532,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8520,10 +8589,10 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>87</v>
@@ -8538,7 +8607,7 @@
         <v>130</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8546,10 +8615,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8557,10 +8626,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8569,23 +8638,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8609,13 +8674,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -8636,10 +8701,10 @@
         <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8648,10 +8713,10 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8659,12 +8724,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8673,7 +8740,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8685,19 +8752,19 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8746,7 +8813,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8761,12 +8828,1332 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1111,7 +1111,7 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">pattern:extension.where(url = 'http://hl7.org/fhir/StructureDefinition/goal-note-extension').valueCode}
 </t>
   </si>
   <si>
@@ -1121,31 +1121,19 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif</t>
-  </si>
-  <si>
-    <t>titreObjectif</t>
-  </si>
-  <si>
-    <t>Titre de l'objectif</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.id</t>
-  </si>
-  <si>
     <t>Goal.note.id</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension</t>
-  </si>
-  <si>
     <t>Goal.note.extension</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension</t>
+    <t>Goal.note.extension:TDDUIGoalNoteExtension</t>
   </si>
   <si>
     <t>TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note}
@@ -1158,60 +1146,6 @@
     <t>Extension pour discriminer l'élément Goal.note.</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.id</t>
-  </si>
-  <si>
-    <t>Goal.note.extension.id</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
-  </si>
-  <si>
-    <t>Goal.note.extension.extension</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.url</t>
-  </si>
-  <si>
-    <t>Goal.note.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
-  </si>
-  <si>
-    <t>Goal.note.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.author[x]</t>
-  </si>
-  <si>
     <t>Goal.note.author[x]</t>
   </si>
   <si>
@@ -1234,9 +1168,6 @@
     <t>Act.participant[typeCode=AUT].role</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.time</t>
-  </si>
-  <si>
     <t>Goal.note.time</t>
   </si>
   <si>
@@ -1256,9 +1187,6 @@
     <t>Act.effectiveTime</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.text</t>
-  </si>
-  <si>
     <t>Goal.note.text</t>
   </si>
   <si>
@@ -1276,6 +1204,84 @@
   </si>
   <si>
     <t>Act.text</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif</t>
+  </si>
+  <si>
+    <t>titreObjectif</t>
+  </si>
+  <si>
+    <t>Titre de l'objectif</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.id</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.id</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.id</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.url</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.author[x]</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.time</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.text</t>
   </si>
   <si>
     <t>Goal.note:avisUsagerObjectif</t>
@@ -1692,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1728,7 +1734,7 @@
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="81.8359375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6309,17 +6315,15 @@
         <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6334,20 +6338,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6395,25 +6395,25 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>169</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6432,10 +6432,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6447,13 +6447,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6492,37 +6492,37 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6530,12 +6530,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6556,13 +6558,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6601,16 +6603,16 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>175</v>
@@ -6639,20 +6641,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C45" t="s" s="2">
         <v>363</v>
       </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -6664,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>364</v>
@@ -6675,7 +6675,9 @@
       <c r="M45" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6724,25 +6726,25 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6750,10 +6752,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6773,16 +6775,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6833,7 +6835,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6845,13 +6847,13 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6859,10 +6861,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6870,10 +6872,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6882,16 +6884,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6930,37 +6932,37 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6968,12 +6970,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6994,24 +6998,26 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -7053,25 +7059,25 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7079,10 +7085,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7105,13 +7111,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7123,7 +7129,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7138,11 +7144,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7160,7 +7168,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7172,13 +7180,13 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7186,10 +7194,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7197,10 +7205,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7209,20 +7217,18 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7259,37 +7265,37 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>175</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7297,18 +7303,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7320,16 +7328,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7380,25 +7388,25 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7406,10 +7414,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7417,7 +7425,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7429,16 +7437,16 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7489,10 +7497,10 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -7501,13 +7509,13 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7515,14 +7523,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7543,20 +7549,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
+        <v>133</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7592,19 +7594,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7616,13 +7618,13 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7630,10 +7632,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7641,7 +7643,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7656,22 +7658,24 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>76</v>
@@ -7713,10 +7717,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>87</v>
@@ -7731,7 +7735,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7739,10 +7743,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7750,10 +7754,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7765,13 +7769,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7783,7 +7787,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -7798,49 +7802,47 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7848,20 +7850,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C56" t="s" s="2">
         <v>363</v>
       </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -7873,7 +7873,7 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>364</v>
@@ -7884,7 +7884,9 @@
       <c r="M56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7933,25 +7935,25 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7959,10 +7961,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7982,16 +7984,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8042,7 +8044,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8054,13 +8056,13 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8068,10 +8070,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8079,10 +8081,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8091,16 +8093,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8139,37 +8141,37 @@
         <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8177,18 +8179,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -8203,24 +8207,26 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -8262,25 +8268,25 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8288,10 +8294,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8314,13 +8320,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8332,7 +8338,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8347,11 +8353,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8369,7 +8377,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8381,13 +8389,13 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8395,10 +8403,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8406,10 +8414,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8418,20 +8426,18 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8468,37 +8474,37 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>175</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8506,18 +8512,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -8529,16 +8537,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8589,25 +8597,25 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8615,10 +8623,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8626,7 +8634,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -8638,16 +8646,16 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8698,10 +8706,10 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>87</v>
@@ -8710,13 +8718,13 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8724,14 +8732,12 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8752,20 +8758,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8801,19 +8803,19 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8825,13 +8827,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8839,10 +8841,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8850,7 +8852,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -8865,22 +8867,24 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>76</v>
@@ -8922,10 +8926,10 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -8940,7 +8944,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8948,10 +8952,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8959,10 +8963,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8974,13 +8978,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8992,7 +8996,7 @@
         <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>76</v>
@@ -9007,49 +9011,47 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9057,20 +9059,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C67" t="s" s="2">
         <v>363</v>
       </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9082,7 +9082,7 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>364</v>
@@ -9093,7 +9093,9 @@
       <c r="M67" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9142,25 +9144,25 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9168,10 +9170,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9191,16 +9193,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9251,7 +9253,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9263,13 +9265,13 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9277,10 +9279,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9288,10 +9290,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9300,16 +9302,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9348,37 +9350,37 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9386,18 +9388,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -9412,24 +9416,26 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>76</v>
@@ -9471,25 +9477,25 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9497,10 +9503,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9523,13 +9529,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9541,7 +9547,7 @@
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -9556,11 +9562,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -9578,7 +9586,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9590,13 +9598,13 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9604,10 +9612,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9615,10 +9623,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9627,20 +9635,18 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9677,37 +9683,37 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>390</v>
+        <v>175</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9715,18 +9721,20 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>87</v>
@@ -9738,16 +9746,16 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9798,25 +9806,25 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9824,10 +9832,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9835,7 +9843,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -9847,16 +9855,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9907,10 +9915,10 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>87</v>
@@ -9919,13 +9927,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9933,10 +9941,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9947,7 +9955,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9959,20 +9967,16 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>433</v>
+        <v>133</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -9996,31 +10000,31 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10032,7 +10036,7 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
@@ -10046,10 +10050,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10057,10 +10061,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10072,26 +10076,24 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>439</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>76</v>
@@ -10133,27 +10135,689 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y77" s="2"/>
+      <c r="Z77" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1111,7 +1111,7 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:extension.where(url = 'http://hl7.org/fhir/StructureDefinition/goal-note-extension').valueCode}
+    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note').value}
 </t>
   </si>
   <si>
@@ -1734,7 +1734,7 @@
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="81.8359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="83.765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -491,6 +491,9 @@
     <t>Liens vers le projet personnalisé, utilisables dans le profil TDDUIGoalObjectif.</t>
   </si>
   <si>
+    <t>ProjetPersonnalise</t>
+  </si>
+  <si>
     <t>Goal.modifierExtension</t>
   </si>
   <si>
@@ -757,6 +760,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/goal-status|4.0.1</t>
+  </si>
+  <si>
+    <t>statutObjectif</t>
   </si>
   <si>
     <t>GOL-18-goal life cycle status</t>
@@ -980,7 +986,24 @@
     <t>http://hl7.org/fhir/ValueSet/goal-start-event|4.0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Goal.start[x]:startDate</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>dateDebutObjectif</t>
   </si>
   <si>
     <t>Goal.target</t>
@@ -1067,10 +1090,6 @@
     <t>Codes to identify the target value of the focus to be achieved to signify the fulfillment of the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>Goal.target.detail[x]:detailString</t>
   </si>
   <si>
@@ -1105,10 +1124,6 @@
     <t>dueDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
     <t>dateFinObjectif</t>
   </si>
   <si>
@@ -1155,6 +1170,9 @@
     <t>This is the individual responsible for establishing the goal, not necessarily who recorded it.  (For that, use the Provenance resource.).</t>
   </si>
   <si>
+    <t>referentObjectif</t>
+  </si>
+  <si>
     <t>FiveWs.source</t>
   </si>
   <si>
@@ -1172,6 +1190,9 @@
   </si>
   <si>
     <t>Allows specific goals to explicitly linked to the concerns they're dealing with - makes the goal more understandable.</t>
+  </si>
+  <si>
+    <t>Besoin</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SUBJ].target[classCode=CONC]</t>
@@ -1786,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3080,7 +3101,7 @@
         <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3094,14 +3115,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3123,16 +3144,16 @@
         <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3181,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3210,10 +3231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3236,19 +3257,19 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3297,7 +3318,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3312,24 +3333,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3352,13 +3373,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3409,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3430,7 +3451,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3438,14 +3459,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3467,13 +3488,13 @@
         <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3514,7 +3535,7 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
@@ -3523,7 +3544,7 @@
         <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3544,7 +3565,7 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3552,10 +3573,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3581,16 +3602,16 @@
         <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3615,13 +3636,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3639,7 +3660,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3660,7 +3681,7 @@
         <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3668,10 +3689,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3694,19 +3715,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3731,13 +3752,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3755,7 +3776,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3773,10 +3794,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3784,10 +3805,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3813,16 +3834,16 @@
         <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3856,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3871,7 +3892,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3889,10 +3910,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3900,10 +3921,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3926,16 +3947,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3949,7 +3970,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -3985,7 +4006,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4003,10 +4024,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4014,10 +4035,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4040,13 +4061,13 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4097,7 +4118,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4115,10 +4136,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4126,10 +4147,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4152,16 +4173,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4211,7 +4232,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4229,10 +4250,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4240,10 +4261,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4269,16 +4290,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4303,13 +4324,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4327,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>89</v>
@@ -4342,24 +4363,24 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4382,13 +4403,13 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4418,10 +4439,10 @@
         <v>113</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4460,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4460,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4468,10 +4489,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4494,17 +4515,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4529,13 +4550,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4553,7 +4574,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4568,7 +4589,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4577,15 +4598,15 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4608,19 +4629,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4648,10 +4669,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4669,7 +4690,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4690,18 +4711,18 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4724,19 +4745,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4761,13 +4782,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4785,7 +4806,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -4803,21 +4824,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4840,13 +4861,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4897,7 +4918,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4918,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4926,14 +4947,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4955,13 +4976,13 @@
         <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5002,7 +5023,7 @@
         <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
@@ -5011,7 +5032,7 @@
         <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5032,7 +5053,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5040,10 +5061,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5066,19 +5087,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5127,7 +5148,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5145,10 +5166,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5156,10 +5177,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5182,19 +5203,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5243,7 +5264,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5258,13 +5279,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5272,10 +5293,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5298,17 +5319,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5357,7 +5378,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>89</v>
@@ -5375,21 +5396,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5412,17 +5433,17 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5447,31 +5468,29 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5495,17 +5514,19 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5514,7 +5535,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5523,22 +5544,20 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5587,23 +5606,23 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5611,15 +5630,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5630,7 +5649,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5642,16 +5661,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5699,19 +5722,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5720,7 +5743,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5728,21 +5751,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5754,17 +5777,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5813,19 +5834,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5834,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5842,14 +5863,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5862,26 +5883,24 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O36" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5929,7 +5948,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5950,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5958,42 +5977,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6017,13 +6040,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6041,19 +6064,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6062,7 +6085,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6070,10 +6093,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6096,17 +6119,15 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N38" t="s" s="2">
         <v>337</v>
       </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6131,29 +6152,31 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6162,7 +6185,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6185,11 +6208,9 @@
         <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6210,16 +6231,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6245,10 +6266,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6257,19 +6278,17 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6278,13 +6297,13 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6298,12 +6317,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6324,18 +6345,18 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6359,10 +6380,10 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6371,17 +6392,19 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6390,13 +6413,13 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6405,7 +6428,7 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6413,11 +6436,9 @@
         <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6438,17 +6459,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6485,19 +6506,17 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6512,7 +6531,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6521,17 +6540,19 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6552,18 +6573,18 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6611,7 +6632,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6626,7 +6647,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6635,7 +6656,7 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
@@ -6663,10 +6684,10 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>359</v>
@@ -6749,15 +6770,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6777,10 +6798,10 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>364</v>
@@ -6839,7 +6860,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6863,15 +6884,15 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,7 +6900,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -6891,21 +6912,21 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6953,13 +6974,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6968,24 +6989,24 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6996,7 +7017,7 @@
         <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7008,19 +7029,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7057,17 +7076,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7082,24 +7103,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7107,10 +7128,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7122,16 +7143,20 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7167,40 +7192,38 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7208,10 +7231,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7219,10 +7242,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7234,13 +7257,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7279,31 +7302,31 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7312,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7320,14 +7343,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7336,7 +7357,7 @@
         <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7348,13 +7369,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7393,19 +7414,19 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7434,21 +7455,23 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7457,20 +7480,18 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7519,28 +7540,28 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>180</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7582,7 +7603,9 @@
       <c r="M51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7631,7 +7654,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7652,7 +7675,7 @@
         <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7660,10 +7683,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7671,7 +7694,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -7686,13 +7709,13 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7743,10 +7766,10 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>89</v>
@@ -7764,7 +7787,7 @@
         <v>132</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7772,14 +7795,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C53" t="s" s="2">
         <v>412</v>
       </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7797,23 +7818,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7861,13 +7878,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7879,10 +7896,10 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7890,18 +7907,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -7916,16 +7935,20 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>171</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7973,28 +7996,28 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8002,10 +8025,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8013,10 +8036,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8028,13 +8051,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8073,31 +8096,31 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8106,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8114,14 +8137,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8130,7 +8151,7 @@
         <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8142,13 +8163,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8187,19 +8208,19 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8228,18 +8249,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8254,13 +8277,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8311,19 +8334,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8332,7 +8355,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8340,10 +8363,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8354,7 +8377,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8366,13 +8389,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8411,31 +8434,31 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8444,7 +8467,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8452,10 +8475,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8463,10 +8486,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8478,24 +8501,22 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8525,31 +8546,31 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8558,7 +8579,7 @@
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8577,7 +8598,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
@@ -8592,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>430</v>
@@ -8600,17 +8621,19 @@
       <c r="M60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>77</v>
@@ -8625,11 +8648,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8647,10 +8672,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -8659,7 +8684,7 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8676,10 +8701,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8699,20 +8724,18 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8722,7 +8745,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -8737,13 +8760,11 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8761,7 +8782,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8779,10 +8800,10 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8790,7 +8811,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>399</v>
@@ -8824,7 +8845,9 @@
       <c r="M62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8873,7 +8896,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8894,7 +8917,7 @@
         <v>132</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8902,10 +8925,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8913,7 +8936,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -8928,13 +8951,13 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8985,10 +9008,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -9000,13 +9023,13 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9014,20 +9037,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9039,23 +9060,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9103,13 +9120,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9118,13 +9135,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9132,12 +9149,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9158,16 +9177,20 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9215,28 +9238,28 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9244,10 +9267,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9255,10 +9278,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9270,13 +9293,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9315,31 +9338,31 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9348,7 +9371,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9356,14 +9379,12 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9372,7 +9393,7 @@
         <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9384,13 +9405,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9429,19 +9450,19 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9470,18 +9491,20 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>89</v>
@@ -9496,13 +9519,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9553,19 +9576,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9574,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9582,10 +9605,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9596,7 +9619,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9608,13 +9631,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9653,31 +9676,31 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9686,7 +9709,7 @@
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9694,10 +9717,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9705,10 +9728,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9720,24 +9743,22 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>77</v>
@@ -9767,31 +9788,31 @@
         <v>77</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9800,7 +9821,7 @@
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9808,7 +9829,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>429</v>
@@ -9819,7 +9840,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -9834,7 +9855,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>430</v>
@@ -9842,17 +9863,19 @@
       <c r="M71" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>77</v>
@@ -9867,11 +9890,13 @@
         <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>77</v>
@@ -9889,10 +9914,10 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -9901,7 +9926,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9918,10 +9943,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9941,20 +9966,18 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9964,7 +9987,7 @@
         <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>77</v>
@@ -9979,13 +10002,11 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10003,7 +10024,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10021,10 +10042,10 @@
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10032,7 +10053,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>399</v>
@@ -10066,7 +10087,9 @@
       <c r="M73" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10115,7 +10138,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10136,7 +10159,7 @@
         <v>132</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10144,10 +10167,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10155,7 +10178,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>89</v>
@@ -10170,13 +10193,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10227,10 +10250,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>89</v>
@@ -10242,13 +10265,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10256,20 +10279,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10281,23 +10302,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10345,13 +10362,13 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -10360,13 +10377,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10374,12 +10391,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10400,16 +10419,20 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>459</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10457,28 +10480,28 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10486,10 +10509,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10497,10 +10520,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10512,13 +10535,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10557,31 +10580,31 @@
         <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10590,7 +10613,7 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10598,14 +10621,12 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10614,7 +10635,7 @@
         <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10626,13 +10647,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10671,19 +10692,19 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10712,18 +10733,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
@@ -10738,13 +10761,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10795,19 +10818,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10816,7 +10839,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10824,10 +10847,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10838,7 +10861,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10850,13 +10873,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10895,31 +10918,31 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10928,7 +10951,7 @@
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -10936,10 +10959,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10947,10 +10970,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10962,24 +10985,22 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -11009,31 +11030,31 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11042,7 +11063,7 @@
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11050,7 +11071,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>429</v>
@@ -11061,7 +11082,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>89</v>
@@ -11076,7 +11097,7 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>430</v>
@@ -11084,17 +11105,19 @@
       <c r="M82" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>77</v>
@@ -11109,11 +11132,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11131,10 +11156,10 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>89</v>
@@ -11143,7 +11168,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11160,10 +11185,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11183,20 +11208,18 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>393</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11206,7 +11229,7 @@
         <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>77</v>
@@ -11221,13 +11244,11 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11245,7 +11266,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11263,10 +11284,10 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11274,7 +11295,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>399</v>
@@ -11308,7 +11329,9 @@
       <c r="M84" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11357,7 +11380,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11378,7 +11401,7 @@
         <v>132</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11386,10 +11409,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11397,7 +11420,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>89</v>
@@ -11412,13 +11435,13 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11469,10 +11492,10 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>89</v>
@@ -11484,13 +11507,13 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11498,10 +11521,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11509,10 +11532,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11521,23 +11544,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>191</v>
+        <v>413</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11561,13 +11580,13 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>77</v>
@@ -11585,13 +11604,13 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
@@ -11600,13 +11619,13 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11614,10 +11633,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11640,7 +11659,7 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>470</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>471</v>
@@ -11652,7 +11671,7 @@
         <v>473</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11677,13 +11696,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -11701,7 +11720,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11725,6 +11744,122 @@
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-objectif.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3853,10 +3856,10 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3892,7 +3895,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3910,10 +3913,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3921,10 +3924,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3932,7 +3935,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -3950,13 +3953,13 @@
         <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3970,7 +3973,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4006,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4024,10 +4027,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4035,10 +4038,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4061,13 +4064,13 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4118,7 +4121,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4136,10 +4139,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4147,10 +4150,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4173,16 +4176,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4232,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4250,10 +4253,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4261,10 +4264,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4290,16 +4293,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4327,10 +4330,10 @@
         <v>186</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4348,7 +4351,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>89</v>
@@ -4363,24 +4366,24 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4406,10 +4409,10 @@
         <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4439,10 +4442,10 @@
         <v>113</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4460,7 +4463,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4481,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4518,14 +4521,14 @@
         <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4550,13 +4553,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4574,7 +4577,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4589,7 +4592,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4598,15 +4601,15 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4632,16 +4635,16 @@
         <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4669,10 +4672,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4690,7 +4693,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4711,18 +4714,18 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4748,16 +4751,16 @@
         <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4782,13 +4785,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4806,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -4824,21 +4827,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4947,10 +4950,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5061,10 +5064,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5087,19 +5090,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5148,7 +5151,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5166,10 +5169,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5177,10 +5180,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5206,16 +5209,16 @@
         <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5264,7 +5267,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5279,13 +5282,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5293,10 +5296,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5319,17 +5322,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5381,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>89</v>
@@ -5396,21 +5399,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5433,17 +5436,17 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5468,19 +5471,19 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5490,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5514,18 +5517,18 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5547,17 +5550,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5609,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5621,7 +5624,7 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5630,15 +5633,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5661,19 +5664,19 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5722,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5731,10 +5734,10 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5751,10 +5754,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5863,10 +5866,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5977,14 +5980,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6006,10 +6009,10 @@
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>158</v>
@@ -6064,7 +6067,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6093,10 +6096,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6122,10 +6125,10 @@
         <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6152,13 +6155,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6176,7 +6179,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6185,7 +6188,7 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6231,16 +6234,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6266,10 +6269,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6278,7 +6281,7 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
@@ -6288,7 +6291,7 @@
         <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6297,7 +6300,7 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
@@ -6317,13 +6320,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6348,13 +6351,13 @@
         <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6380,10 +6383,10 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6404,7 +6407,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6413,13 +6416,13 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6433,10 +6436,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6459,17 +6462,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6506,7 +6509,7 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -6516,7 +6519,7 @@
         <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6540,18 +6543,18 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
@@ -6573,17 +6576,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6632,7 +6635,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6647,7 +6650,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6656,15 +6659,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6687,16 +6690,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6746,7 +6749,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6770,15 +6773,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6804,13 +6807,13 @@
         <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6860,7 +6863,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6889,10 +6892,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6915,16 +6918,16 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6974,7 +6977,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6992,7 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6998,15 +7001,15 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7029,17 +7032,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7088,7 +7091,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7103,24 +7106,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7143,19 +7146,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7192,7 +7195,7 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
@@ -7202,7 +7205,7 @@
         <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7220,10 +7223,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7231,10 +7234,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,10 +7346,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7455,13 +7458,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="C50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7471,7 +7474,7 @@
         <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7483,13 +7486,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7569,10 +7572,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7595,16 +7598,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7654,7 +7657,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7675,7 +7678,7 @@
         <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7683,10 +7686,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7709,13 +7712,13 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7766,7 +7769,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7787,7 +7790,7 @@
         <v>132</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7795,10 +7798,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7821,13 +7824,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7878,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>89</v>
@@ -7899,7 +7902,7 @@
         <v>132</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7907,13 +7910,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
@@ -7935,19 +7938,19 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7996,7 +7999,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8014,10 +8017,10 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8025,10 +8028,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8137,10 +8140,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8249,13 +8252,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
@@ -8277,13 +8280,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8363,10 +8366,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8475,10 +8478,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8587,10 +8590,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8616,13 +8619,13 @@
         <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8630,7 +8633,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>77</v>
@@ -8672,7 +8675,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -8701,10 +8704,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8730,10 +8733,10 @@
         <v>109</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8745,7 +8748,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -8764,7 +8767,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8782,7 +8785,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8811,10 +8814,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8837,16 +8840,16 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8896,7 +8899,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8917,7 +8920,7 @@
         <v>132</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8925,10 +8928,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8951,13 +8954,13 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9008,7 +9011,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9029,7 +9032,7 @@
         <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9037,10 +9040,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9063,13 +9066,13 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9120,7 +9123,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
@@ -9135,13 +9138,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9149,13 +9152,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9177,19 +9180,19 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9238,7 +9241,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9256,10 +9259,10 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9267,10 +9270,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9379,10 +9382,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9491,13 +9494,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -9519,13 +9522,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9605,10 +9608,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9717,10 +9720,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9829,10 +9832,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9858,13 +9861,13 @@
         <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9872,7 +9875,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9914,7 +9917,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -9943,10 +9946,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9972,10 +9975,10 @@
         <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9987,7 +9990,7 @@
         <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>77</v>
@@ -10006,7 +10009,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10024,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10053,10 +10056,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10079,16 +10082,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10138,7 +10141,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10159,7 +10162,7 @@
         <v>132</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10167,10 +10170,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10193,13 +10196,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10250,7 +10253,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10271,7 +10274,7 @@
         <v>132</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10279,10 +10282,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10305,13 +10308,13 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10362,7 +10365,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10377,13 +10380,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10391,13 +10394,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -10419,19 +10422,19 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10480,7 +10483,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10498,10 +10501,10 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10509,10 +10512,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10621,10 +10624,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10733,13 +10736,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
@@ -10761,13 +10764,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10847,10 +10850,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10959,10 +10962,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11071,10 +11074,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11100,13 +11103,13 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11114,7 +11117,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -11156,7 +11159,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>89</v>
@@ -11185,10 +11188,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11214,10 +11217,10 @@
         <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11229,7 +11232,7 @@
         <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>77</v>
@@ -11248,7 +11251,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11266,7 +11269,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11295,10 +11298,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11321,16 +11324,16 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11380,7 +11383,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11401,7 +11404,7 @@
         <v>132</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11409,10 +11412,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11435,13 +11438,13 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11492,7 +11495,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11513,7 +11516,7 @@
         <v>132</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11521,10 +11524,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11547,13 +11550,13 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11604,7 +11607,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -11619,13 +11622,13 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11633,10 +11636,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11662,16 +11665,16 @@
         <v>192</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11696,13 +11699,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -11720,7 +11723,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11749,10 +11752,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11775,19 +11778,19 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11836,7 +11839,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource TDDUIGoalObjectif permettant de représenter les résultats à atteindre dans le cadre du projet personnalisé.</t>
+    <t>Profil de la ressource Goal permettant de représenter les résultats à atteindre dans le cadre du projet personnalisé.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -326,13 +326,193 @@
 </t>
   </si>
   <si>
-    <t>Goal.implicitRules</t>
+    <t>Goal.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Goal.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Goal.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Goal.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>statutObjectif.dateStatut</t>
+  </si>
+  <si>
+    <t>Goal.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Goal.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Goal.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Goal.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Goal.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -428,28 +608,13 @@
     <t>Goal.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Goal.extension:referenceEvaluation</t>
@@ -497,10 +662,6 @@
     <t>Goal.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -508,9 +669,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -536,7 +694,7 @@
     <t>Allows identification of the goal as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t>identifiantObjectif</t>
+    <t>idObjectif</t>
   </si>
   <si>
     <t>.id</t>
@@ -548,35 +706,7 @@
     <t>Goal.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Goal.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Goal.identifier.use</t>
@@ -628,9 +758,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -765,7 +892,7 @@
     <t>http://hl7.org/fhir/ValueSet/goal-status|4.0.1</t>
   </si>
   <si>
-    <t>statutObjectif</t>
+    <t>statutObjectif.statut</t>
   </si>
   <si>
     <t>GOL-18-goal life cycle status</t>
@@ -805,9 +932,6 @@
   </si>
   <si>
     <t>Allows goals to be filtered and sorted.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for grouping and sorting goals.</t>
@@ -890,10 +1014,6 @@
     <t>Goal.description.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1160,7 +1280,7 @@
     <t>Goal.expressedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
 </t>
   </si>
   <si>
@@ -1810,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1829,7 +1949,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2344,10 +2464,10 @@
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>103</v>
@@ -2358,9 +2478,7 @@
       <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>77</v>
@@ -2409,28 +2527,28 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>77</v>
@@ -2445,14 +2563,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2464,16 +2582,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2499,43 +2617,43 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2544,7 +2662,7 @@
         <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>77</v>
@@ -2552,14 +2670,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2575,10 +2693,10 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>120</v>
@@ -2658,7 +2776,7 @@
         <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2666,21 +2784,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -2689,19 +2807,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2751,28 +2869,28 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
@@ -2780,10 +2898,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2791,10 +2909,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -2803,18 +2921,20 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2851,29 +2971,31 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2890,14 +3012,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2915,18 +3035,20 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2975,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2984,13 +3106,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3004,23 +3126,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3029,18 +3149,20 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -3065,13 +3187,13 @@
         <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>77</v>
@@ -3089,7 +3211,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3098,13 +3220,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3118,14 +3240,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3138,26 +3260,24 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3181,13 +3301,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3205,7 +3325,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3217,7 +3337,7 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
@@ -3226,7 +3346,7 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3234,10 +3354,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3245,7 +3365,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -3254,26 +3374,24 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3321,13 +3439,13 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -3336,24 +3454,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3376,15 +3494,17 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3409,13 +3529,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3433,7 +3553,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3445,7 +3565,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3454,7 +3574,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3462,21 +3582,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3488,7 +3608,7 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>177</v>
@@ -3497,7 +3617,7 @@
         <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3535,16 +3655,16 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>180</v>
@@ -3553,13 +3673,13 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3568,7 +3688,7 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3576,46 +3696,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3639,52 +3757,52 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3692,10 +3810,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3703,10 +3821,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3715,23 +3833,19 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3755,52 +3869,50 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3808,21 +3920,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3831,23 +3945,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3856,10 +3966,10 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3895,28 +4005,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3924,12 +4034,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3947,20 +4059,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3973,7 +4083,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4009,28 +4119,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4038,42 +4148,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4121,28 +4235,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4150,10 +4264,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4161,7 +4275,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4173,21 +4287,23 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4235,13 +4351,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4250,24 +4366,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4275,7 +4391,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4284,26 +4400,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4327,13 +4439,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4351,10 +4463,10 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4363,38 +4475,38 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4403,18 +4515,20 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4439,43 +4553,43 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4484,7 +4598,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4492,10 +4606,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4506,29 +4620,31 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4553,13 +4669,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4577,13 +4693,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4592,24 +4708,24 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4632,19 +4748,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4669,13 +4785,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4693,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4711,21 +4827,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4748,19 +4864,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4770,10 +4886,10 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4785,13 +4901,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4809,10 +4925,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4827,21 +4943,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4849,7 +4965,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4861,18 +4977,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4885,7 +5003,7 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4921,7 +5039,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4933,16 +5051,16 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4950,21 +5068,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4973,20 +5091,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5023,40 +5139,40 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5180,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5078,7 +5194,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5090,20 +5206,18 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5151,13 +5265,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5169,10 +5283,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5180,10 +5294,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5191,7 +5305,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5200,25 +5314,25 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5243,13 +5357,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5267,10 +5381,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5282,24 +5396,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5307,7 +5421,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5322,18 +5436,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5357,13 +5469,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5381,10 +5493,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5399,21 +5511,21 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5424,7 +5536,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5436,17 +5548,17 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5471,35 +5583,37 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5508,7 +5622,7 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5517,19 +5631,17 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5550,17 +5662,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5585,13 +5699,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5609,7 +5723,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5624,24 +5738,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5649,10 +5763,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5661,22 +5775,22 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5701,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5725,39 +5839,39 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5780,13 +5894,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5837,7 +5951,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5858,7 +5972,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5866,14 +5980,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5892,16 +6006,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5939,19 +6053,19 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5963,7 +6077,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5972,7 +6086,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5980,14 +6094,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6000,25 +6114,25 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6067,7 +6181,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6079,16 +6193,16 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6096,10 +6210,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6122,16 +6236,20 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6155,13 +6273,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6179,7 +6297,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6188,19 +6306,19 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6208,10 +6326,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6219,7 +6337,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6234,18 +6352,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6269,10 +6387,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6281,26 +6399,28 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
@@ -6309,13 +6429,13 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
@@ -6323,11 +6443,9 @@
         <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6348,18 +6466,18 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6383,31 +6501,29 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6416,13 +6532,13 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6431,17 +6547,19 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6462,17 +6580,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6509,17 +6627,19 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6534,7 +6654,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6548,14 +6668,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6564,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6573,20 +6691,22 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6635,22 +6755,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6659,15 +6779,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6687,20 +6807,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6749,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6761,7 +6879,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6770,29 +6888,29 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6804,16 +6922,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>112</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>367</v>
+        <v>113</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6863,19 +6981,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6884,7 +7002,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6892,44 +7010,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6977,31 +7097,31 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -7017,7 +7137,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7029,21 +7149,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7067,13 +7185,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7097,33 +7215,33 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7131,10 +7249,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7143,23 +7261,21 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7183,10 +7299,10 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7195,26 +7311,26 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7223,10 +7339,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7234,12 +7350,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7257,18 +7375,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7293,10 +7413,10 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7317,7 +7437,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7326,19 +7446,19 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7346,10 +7466,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7357,10 +7477,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7369,19 +7489,21 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>136</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7417,31 +7539,29 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>180</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7453,28 +7573,28 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7483,19 +7603,21 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7543,22 +7665,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>180</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7567,15 +7689,15 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7598,16 +7720,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7657,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7675,21 +7797,21 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7709,18 +7831,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7769,7 +7893,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7787,10 +7911,10 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7798,10 +7922,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7809,7 +7933,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>89</v>
@@ -7824,15 +7948,17 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7881,10 +8007,10 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>89</v>
@@ -7896,28 +8022,26 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7938,19 +8062,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7999,7 +8121,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8014,16 +8136,16 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55">
@@ -8031,7 +8153,7 @@
         <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8039,10 +8161,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8054,16 +8176,20 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8099,40 +8225,38 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>174</v>
+        <v>422</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8140,10 +8264,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8151,10 +8275,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8166,13 +8290,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8211,31 +8335,31 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8244,7 +8368,7 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8252,14 +8376,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8268,7 +8390,7 @@
         <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8280,13 +8402,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>397</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8325,19 +8447,19 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8349,7 +8471,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8366,21 +8488,23 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>435</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8392,13 +8516,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>173</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8449,19 +8573,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8470,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8478,10 +8602,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8492,7 +8616,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8501,18 +8625,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8549,40 +8675,40 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>180</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8590,10 +8716,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8601,7 +8727,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
@@ -8613,27 +8739,25 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>77</v>
@@ -8675,10 +8799,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -8687,16 +8811,16 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8704,10 +8828,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8715,7 +8839,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -8727,16 +8851,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8748,7 +8872,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -8763,11 +8887,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8785,10 +8911,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>89</v>
@@ -8803,10 +8929,10 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8814,18 +8940,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -8837,21 +8965,23 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8899,13 +9029,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8917,10 +9047,10 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8928,10 +9058,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8951,16 +9081,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>410</v>
+        <v>105</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9011,7 +9141,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9023,16 +9153,16 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9040,10 +9170,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9054,7 +9184,7 @@
         <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9063,16 +9193,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>414</v>
+        <v>110</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9111,40 +9241,40 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>117</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9152,20 +9282,20 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9180,20 +9310,16 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9241,7 +9367,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9253,16 +9379,16 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9270,10 +9396,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9296,13 +9422,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9353,7 +9479,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9374,7 +9500,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9382,10 +9508,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9393,10 +9519,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9408,13 +9534,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9453,19 +9579,19 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9477,7 +9603,7 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9494,14 +9620,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9522,22 +9646,24 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>397</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9579,19 +9705,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9600,7 +9726,7 @@
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9608,10 +9734,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9634,13 +9760,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9652,7 +9778,7 @@
         <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -9667,13 +9793,11 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9691,7 +9815,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9703,7 +9827,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9712,7 +9836,7 @@
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9720,10 +9844,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9734,7 +9858,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9743,18 +9867,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9791,40 +9917,40 @@
         <v>77</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>180</v>
+        <v>444</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9832,10 +9958,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9843,7 +9969,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -9855,27 +9981,25 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9917,10 +10041,10 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -9929,16 +10053,16 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9946,10 +10070,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9957,7 +10081,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>89</v>
@@ -9969,16 +10093,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9990,7 +10114,7 @@
         <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>77</v>
@@ -10005,11 +10129,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10027,10 +10153,10 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>89</v>
@@ -10042,13 +10168,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10056,12 +10182,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10079,21 +10207,23 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10141,13 +10271,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10159,10 +10289,10 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10170,10 +10300,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10193,16 +10323,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
+        <v>105</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10253,7 +10383,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10265,16 +10395,16 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10282,10 +10412,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10296,7 +10426,7 @@
         <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10305,16 +10435,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>414</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10353,40 +10483,40 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>417</v>
+        <v>117</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10394,20 +10524,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -10422,20 +10552,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10483,7 +10609,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10495,16 +10621,16 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10512,10 +10638,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10538,13 +10664,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10595,7 +10721,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10616,7 +10742,7 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10624,10 +10750,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10635,10 +10761,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10650,13 +10776,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10695,19 +10821,19 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10719,7 +10845,7 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10736,14 +10862,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10764,22 +10888,24 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>397</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10821,19 +10947,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10842,7 +10968,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10850,10 +10976,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10876,13 +11002,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10894,7 +11020,7 @@
         <v>77</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
@@ -10909,13 +11035,11 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10933,7 +11057,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10945,7 +11069,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10954,7 +11078,7 @@
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -10962,10 +11086,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10976,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10985,18 +11109,20 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11033,40 +11159,40 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>180</v>
+        <v>444</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11074,10 +11200,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11085,7 +11211,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>89</v>
@@ -11097,27 +11223,25 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -11159,10 +11283,10 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>89</v>
@@ -11171,16 +11295,16 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11188,10 +11312,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11199,7 +11323,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -11211,16 +11335,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11232,7 +11356,7 @@
         <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>77</v>
@@ -11247,11 +11371,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11269,10 +11395,10 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -11284,13 +11410,13 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11298,12 +11424,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11321,21 +11449,23 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11383,13 +11513,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11401,10 +11531,10 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11412,10 +11542,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11435,16 +11565,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>410</v>
+        <v>105</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11495,7 +11625,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11507,16 +11637,16 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11524,10 +11654,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11538,7 +11668,7 @@
         <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11547,16 +11677,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>414</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11595,40 +11725,40 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>417</v>
+        <v>117</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11636,21 +11766,23 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11662,20 +11794,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11699,13 +11827,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -11723,7 +11851,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11735,7 +11863,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -11752,10 +11880,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11766,7 +11894,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11778,20 +11906,16 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>478</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>479</v>
+        <v>104</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11839,30 +11963,936 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
+      <c r="M91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y91" s="2"/>
+      <c r="Z91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,6 +657,22 @@
   </si>
   <si>
     <t>ProjetPersonnalise</t>
+  </si>
+  <si>
+    <t>Goal.extension:pieceJointeObjectif</t>
+  </si>
+  <si>
+    <t>pieceJointeObjectif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+</t>
+  </si>
+  <si>
+    <t>Pièce jointe</t>
+  </si>
+  <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>
@@ -1930,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4151,11 +4167,13 @@
         <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4168,26 +4186,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4244,7 +4258,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>118</v>
@@ -4256,7 +4270,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4271,38 +4285,38 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4351,7 +4365,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4363,27 +4377,27 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4391,7 +4405,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4406,16 +4420,20 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4463,50 +4481,50 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4518,17 +4536,15 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4565,31 +4581,31 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4606,46 +4622,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4669,52 +4683,52 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4722,10 +4736,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4742,25 +4756,25 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4785,13 +4799,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4823,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4827,10 +4841,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4838,10 +4852,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4849,7 +4863,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4864,19 +4878,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4886,10 +4900,10 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4901,13 +4915,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4925,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4943,10 +4957,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4954,10 +4968,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4980,18 +4994,20 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5000,10 +5016,10 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5055,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5057,10 +5073,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5068,10 +5084,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5079,7 +5095,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5094,15 +5110,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5115,7 +5133,7 @@
         <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>77</v>
@@ -5151,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5169,10 +5187,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5180,10 +5198,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5206,17 +5224,15 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5265,7 +5281,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5283,10 +5299,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5294,10 +5310,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5305,7 +5321,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5314,26 +5330,24 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5357,13 +5371,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5381,10 +5395,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5396,24 +5410,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5421,7 +5435,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5430,22 +5444,26 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5469,13 +5487,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5493,10 +5511,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5508,24 +5526,24 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5536,7 +5554,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5548,18 +5566,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5583,13 +5599,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5607,13 +5623,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5622,24 +5638,24 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5650,7 +5666,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5662,19 +5678,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5699,13 +5713,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5723,13 +5737,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5738,24 +5752,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5763,7 +5777,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5778,19 +5792,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5815,13 +5829,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5839,10 +5853,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -5857,21 +5871,21 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5879,7 +5893,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5891,19 +5905,23 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5927,13 +5945,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5951,10 +5969,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5963,38 +5981,38 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6006,17 +6024,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6053,31 +6069,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6094,14 +6110,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6117,23 +6133,21 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6169,19 +6183,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6193,16 +6207,16 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6210,10 +6224,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6224,7 +6238,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6236,19 +6250,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6297,13 +6311,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6312,13 +6326,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6326,10 +6340,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6337,7 +6351,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6352,17 +6366,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6411,10 +6427,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
@@ -6426,24 +6442,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6451,7 +6467,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6466,17 +6482,17 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6501,32 +6517,34 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
@@ -6541,25 +6559,23 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6580,17 +6596,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6615,31 +6631,29 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6654,7 +6668,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6663,17 +6677,19 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6682,7 +6698,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6691,22 +6707,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6755,39 +6769,39 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6798,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6810,16 +6824,20 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6867,19 +6885,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6888,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6896,21 +6914,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6922,17 +6940,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6981,19 +6997,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -7010,14 +7026,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>371</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7030,26 +7046,24 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7097,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7118,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7133,35 +7147,39 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7185,43 +7203,43 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7230,7 +7248,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7264,17 +7282,15 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7302,23 +7318,25 @@
         <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>380</v>
@@ -7330,7 +7348,7 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7350,14 +7368,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7378,16 +7394,16 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7416,29 +7432,27 @@
         <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AC48" s="2"/>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7446,13 +7460,13 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7466,12 +7480,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7492,18 +7508,18 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7527,10 +7543,10 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7539,17 +7555,19 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7558,13 +7576,13 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7573,19 +7591,17 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7606,17 +7622,17 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7653,19 +7669,17 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7680,7 +7694,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7689,17 +7703,19 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7720,18 +7736,18 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7779,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7810,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7803,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52">
@@ -7831,10 +7847,10 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>404</v>
@@ -7917,15 +7933,15 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7945,10 +7961,10 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>409</v>
@@ -8007,7 +8023,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8022,7 +8038,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8031,15 +8047,15 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8047,7 +8063,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>89</v>
@@ -8059,21 +8075,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8121,13 +8137,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8136,24 +8152,24 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8164,7 +8180,7 @@
         <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8176,19 +8192,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8225,17 +8239,19 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8250,24 +8266,24 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8275,10 +8291,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8290,16 +8306,20 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>104</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8335,40 +8355,38 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8376,10 +8394,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8387,10 +8405,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8402,13 +8420,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8447,31 +8465,31 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8498,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8488,14 +8506,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8504,7 +8520,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8516,13 +8532,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8561,16 +8577,16 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>117</v>
@@ -8602,21 +8618,23 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>440</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8625,20 +8643,18 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N59" t="s" s="2">
         <v>443</v>
       </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8687,28 +8703,28 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>117</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8716,10 +8732,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8742,15 +8758,17 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8799,7 +8817,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8820,7 +8838,7 @@
         <v>189</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8828,10 +8846,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8839,7 +8857,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -8854,13 +8872,13 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8911,10 +8929,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>89</v>
@@ -8932,7 +8950,7 @@
         <v>189</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8940,14 +8958,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8965,23 +8981,19 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9029,13 +9041,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -9047,10 +9059,10 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9058,18 +9070,20 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9084,16 +9098,20 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9141,28 +9159,28 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9170,10 +9188,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9181,10 +9199,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9196,13 +9214,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9241,31 +9259,31 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9274,7 +9292,7 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9282,14 +9300,12 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9298,7 +9314,7 @@
         <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9310,13 +9326,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9355,16 +9371,16 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>117</v>
@@ -9396,18 +9412,20 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9422,13 +9440,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9479,19 +9497,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9500,7 +9518,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9508,10 +9526,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9522,7 +9540,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9534,13 +9552,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9579,31 +9597,31 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9630,7 @@
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9620,10 +9638,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9631,10 +9649,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9646,24 +9664,22 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>470</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9693,31 +9709,31 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9726,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9734,10 +9750,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9745,7 +9761,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -9760,25 +9776,27 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -9793,32 +9811,34 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>89</v>
@@ -9827,7 +9847,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9844,10 +9864,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9867,20 +9887,18 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>440</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9890,7 +9908,7 @@
         <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>77</v>
@@ -9905,13 +9923,11 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9929,7 +9945,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9947,10 +9963,10 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9958,10 +9974,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9984,15 +10000,17 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10041,7 +10059,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10062,7 +10080,7 @@
         <v>189</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10070,10 +10088,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10081,7 +10099,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>89</v>
@@ -10096,13 +10114,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10153,10 +10171,10 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>89</v>
@@ -10168,13 +10186,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10182,20 +10200,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10207,23 +10223,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10271,13 +10283,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10286,13 +10298,13 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10300,12 +10312,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10326,16 +10340,20 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10383,28 +10401,28 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10412,10 +10430,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10423,10 +10441,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10438,13 +10456,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10483,31 +10501,31 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10516,7 +10534,7 @@
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10524,14 +10542,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10540,7 +10556,7 @@
         <v>89</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10552,13 +10568,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10597,16 +10613,16 @@
         <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>117</v>
@@ -10638,18 +10654,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
@@ -10664,13 +10682,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10721,19 +10739,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10742,7 +10760,7 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10750,10 +10768,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10764,7 +10782,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10776,13 +10794,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10821,31 +10839,31 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10854,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10862,10 +10880,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10873,10 +10891,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10888,24 +10906,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>191</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10935,31 +10951,31 @@
         <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10968,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10976,10 +10992,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10987,7 +11003,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>89</v>
@@ -11002,25 +11018,27 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
@@ -11035,32 +11053,34 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>89</v>
@@ -11069,7 +11089,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -11086,10 +11106,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11109,20 +11129,18 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>440</v>
+        <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11132,7 +11150,7 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>77</v>
@@ -11147,13 +11165,11 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11171,7 +11187,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11189,10 +11205,10 @@
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11200,10 +11216,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11226,15 +11242,17 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11283,7 +11301,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11304,7 +11322,7 @@
         <v>189</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11312,10 +11330,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11323,7 +11341,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -11338,13 +11356,13 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11395,10 +11413,10 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -11410,13 +11428,13 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11424,20 +11442,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>89</v>
@@ -11449,23 +11465,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11513,13 +11525,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11528,13 +11540,13 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>429</v>
+        <v>189</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11542,12 +11554,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11568,16 +11582,20 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11625,28 +11643,28 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11654,10 +11672,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11665,10 +11683,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11680,13 +11698,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11725,31 +11743,31 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -11758,7 +11776,7 @@
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11766,14 +11784,12 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11782,7 +11798,7 @@
         <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11794,13 +11810,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11839,16 +11855,16 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>117</v>
@@ -11880,18 +11896,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -11906,13 +11924,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11963,19 +11981,19 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11984,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -11992,10 +12010,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12006,7 +12024,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -12018,13 +12036,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12063,31 +12081,31 @@
         <v>77</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -12096,7 +12114,7 @@
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12104,10 +12122,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12115,10 +12133,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12130,24 +12148,22 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>470</v>
+        <v>191</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>77</v>
@@ -12177,31 +12193,31 @@
         <v>77</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12210,7 +12226,7 @@
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12218,10 +12234,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12229,7 +12245,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>89</v>
@@ -12244,25 +12260,27 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>77</v>
@@ -12277,32 +12295,34 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>89</v>
@@ -12311,7 +12331,7 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -12328,10 +12348,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12351,20 +12371,18 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>440</v>
+        <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
@@ -12374,7 +12392,7 @@
         <v>77</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>77</v>
@@ -12389,13 +12407,11 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -12413,7 +12429,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12431,10 +12447,10 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12442,10 +12458,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12468,15 +12484,17 @@
         <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12525,7 +12543,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12546,7 +12564,7 @@
         <v>189</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
@@ -12554,10 +12572,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12565,7 +12583,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -12580,13 +12598,13 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12637,10 +12655,10 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>89</v>
@@ -12652,13 +12670,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>77</v>
@@ -12666,10 +12684,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12677,10 +12695,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12689,23 +12707,19 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12729,13 +12743,13 @@
         <v>77</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>77</v>
@@ -12753,13 +12767,13 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
@@ -12768,13 +12782,13 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>77</v>
@@ -12782,10 +12796,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12808,19 +12822,19 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12845,13 +12859,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -12869,7 +12883,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12893,6 +12907,122 @@
         <v>77</v>
       </c>
       <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -918,6 +918,46 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Goal.lifecycleStatus.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Goal.lifecycleStatus.extension</t>
+  </si>
+  <si>
+    <t>Goal.lifecycleStatus.extension:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Profession</t>
+  </si>
+  <si>
+    <t>Extension permettant de représenter la profession du professionnel.</t>
+  </si>
+  <si>
+    <t>statutObjectif.auteur</t>
+  </si>
+  <si>
+    <t>Goal.lifecycleStatus.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Goal.achievementStatus</t>
@@ -1946,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5563,10 +5603,10 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>293</v>
@@ -5599,13 +5639,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5663,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5635,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5644,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5652,10 +5692,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5675,21 +5715,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5713,31 +5751,29 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5749,10 +5785,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5761,17 +5797,19 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5789,23 +5827,19 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5829,13 +5863,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5853,39 +5887,39 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5893,7 +5927,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5905,23 +5939,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5945,13 +5975,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5969,10 +5999,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5981,27 +6011,27 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6021,16 +6051,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6057,13 +6087,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6093,7 +6123,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6102,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6110,14 +6140,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6133,21 +6163,21 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6171,31 +6201,31 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6207,27 +6237,27 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6238,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6250,19 +6280,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6287,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6311,13 +6341,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6329,21 +6359,21 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6351,7 +6381,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6366,19 +6396,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6403,13 +6433,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6427,10 +6457,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
@@ -6442,24 +6472,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6467,7 +6497,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6479,21 +6509,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6541,10 +6569,10 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
@@ -6553,38 +6581,38 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6593,21 +6621,21 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6631,21 +6659,23 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6653,19 +6683,19 @@
         <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>117</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6674,22 +6704,20 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6698,7 +6726,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6710,17 +6738,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>144</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6769,13 +6799,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6784,24 +6814,24 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6812,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6821,22 +6851,22 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6885,28 +6915,28 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6914,10 +6944,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6925,7 +6955,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -6937,19 +6967,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6997,10 +7029,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7009,38 +7041,38 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7049,21 +7081,21 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7087,43 +7119,41 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7132,53 +7162,53 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7227,39 +7257,39 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7270,7 +7300,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7279,19 +7309,23 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7315,43 +7349,43 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7368,10 +7402,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7391,20 +7425,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7429,10 +7461,10 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7441,17 +7473,19 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7460,10 +7494,10 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7472,7 +7506,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7480,23 +7514,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7505,19 +7537,19 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7543,10 +7575,10 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7567,28 +7599,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>117</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7596,43 +7628,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7669,29 +7703,31 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7700,22 +7736,20 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7736,18 +7770,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7771,13 +7803,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7795,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7804,13 +7836,13 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7819,15 +7851,15 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7850,16 +7882,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7885,10 +7917,10 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7897,19 +7929,17 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7918,7 +7948,7 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
@@ -7933,17 +7963,19 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7961,19 +7993,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7999,10 +8031,10 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -8023,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8032,13 +8064,13 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8052,10 +8084,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8078,18 +8110,18 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8125,19 +8157,17 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8152,7 +8182,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8161,23 +8191,25 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8189,20 +8221,20 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8251,13 +8283,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8266,24 +8298,24 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8291,10 +8323,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8303,23 +8335,21 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8355,23 +8385,25 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8383,21 +8415,21 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8423,12 +8455,14 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8477,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8489,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8498,7 +8532,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8506,10 +8540,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8517,10 +8551,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8529,18 +8563,20 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>191</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8577,34 +8613,34 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>117</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8613,19 +8649,17 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8634,7 +8668,7 @@
         <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>440</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8646,16 +8680,18 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8703,7 +8739,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>117</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8715,27 +8751,27 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8743,10 +8779,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8755,21 +8791,23 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8805,25 +8843,23 @@
         <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8835,10 +8871,10 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>189</v>
+        <v>447</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8846,10 +8882,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8869,16 +8905,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>452</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8929,7 +8965,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8941,16 +8977,16 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8958,10 +8994,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8972,7 +9008,7 @@
         <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8981,16 +9017,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>458</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>459</v>
+        <v>191</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>460</v>
+        <v>192</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9029,40 +9065,40 @@
         <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>461</v>
+        <v>117</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9070,13 +9106,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -9086,7 +9122,7 @@
         <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>453</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -9098,20 +9134,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9159,7 +9191,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>427</v>
+        <v>117</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9171,16 +9203,16 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9188,10 +9220,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9211,18 +9243,20 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9271,7 +9305,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9283,16 +9317,16 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9300,10 +9334,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9311,10 +9345,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9323,16 +9357,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>192</v>
+        <v>467</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9371,40 +9405,40 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>117</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9412,14 +9446,12 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9437,16 +9469,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9497,28 +9529,28 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9526,18 +9558,20 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>89</v>
@@ -9552,16 +9586,20 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9609,28 +9647,28 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9638,10 +9676,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9652,7 +9690,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9664,13 +9702,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9709,31 +9747,31 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9780,7 @@
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9750,10 +9788,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9764,7 +9802,7 @@
         <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9776,24 +9814,22 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>191</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9823,31 +9859,31 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>479</v>
+        <v>117</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9856,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9864,18 +9900,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -9890,13 +9928,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9908,7 +9946,7 @@
         <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>77</v>
@@ -9923,11 +9961,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9945,19 +9985,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9966,7 +10006,7 @@
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9974,10 +10014,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9997,20 +10037,18 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10059,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>106</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10071,16 +10109,16 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10088,10 +10126,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10102,7 +10140,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10111,16 +10149,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>452</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>453</v>
+        <v>191</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>454</v>
+        <v>192</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10159,40 +10197,40 @@
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>455</v>
+        <v>117</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10200,10 +10238,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10223,25 +10261,27 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -10283,7 +10323,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10295,16 +10335,16 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10312,14 +10352,12 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10340,20 +10378,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>428</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10362,7 +10396,7 @@
         <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>77</v>
@@ -10377,13 +10411,11 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10401,13 +10433,13 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
@@ -10419,10 +10451,10 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>435</v>
+        <v>189</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10430,10 +10462,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10453,18 +10485,20 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10513,7 +10547,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10525,16 +10559,16 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10542,10 +10576,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10553,10 +10587,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10565,16 +10599,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>192</v>
+        <v>467</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10613,40 +10647,40 @@
         <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>117</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10654,14 +10688,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10679,16 +10711,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10739,28 +10771,28 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10768,12 +10800,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10794,16 +10828,20 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10851,28 +10889,28 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10880,10 +10918,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10894,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10906,13 +10944,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10951,31 +10989,31 @@
         <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10984,7 +11022,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10992,10 +11030,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11006,7 +11044,7 @@
         <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11018,24 +11056,22 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>191</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>77</v>
@@ -11065,31 +11101,31 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>479</v>
+        <v>117</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -11098,7 +11134,7 @@
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11106,18 +11142,20 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>89</v>
@@ -11132,13 +11170,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11150,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>77</v>
@@ -11165,11 +11203,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11187,19 +11227,19 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11208,7 +11248,7 @@
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11216,10 +11256,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11239,20 +11279,18 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>446</v>
+        <v>104</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11301,7 +11339,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>449</v>
+        <v>106</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11313,16 +11351,16 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11330,10 +11368,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11344,7 +11382,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11353,16 +11391,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>453</v>
+        <v>191</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>454</v>
+        <v>192</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11401,40 +11439,40 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>455</v>
+        <v>117</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11442,10 +11480,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11465,25 +11503,27 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>458</v>
+        <v>132</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -11525,7 +11565,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>89</v>
@@ -11537,16 +11577,16 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11554,14 +11594,12 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11582,20 +11620,16 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>166</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11604,7 +11638,7 @@
         <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>77</v>
@@ -11619,13 +11653,11 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11643,13 +11675,13 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
@@ -11661,10 +11693,10 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>435</v>
+        <v>189</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11672,10 +11704,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11695,18 +11727,20 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11755,7 +11789,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11767,16 +11801,16 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11784,10 +11818,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11795,10 +11829,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11807,16 +11841,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>192</v>
+        <v>467</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11855,40 +11889,40 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>117</v>
+        <v>468</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11896,14 +11930,12 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11921,16 +11953,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11981,28 +12013,28 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12010,12 +12042,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12036,16 +12070,20 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>104</v>
+        <v>517</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12093,28 +12131,28 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12122,10 +12160,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12136,7 +12174,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12148,13 +12186,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12193,31 +12231,31 @@
         <v>77</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12226,7 +12264,7 @@
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12234,10 +12272,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12248,7 +12286,7 @@
         <v>89</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12260,24 +12298,22 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>475</v>
+        <v>191</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12307,31 +12343,31 @@
         <v>77</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>479</v>
+        <v>117</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -12340,7 +12376,7 @@
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12348,18 +12384,20 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>89</v>
@@ -12374,13 +12412,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12392,7 +12430,7 @@
         <v>77</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>77</v>
@@ -12407,11 +12445,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z92" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -12429,19 +12469,19 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
@@ -12450,7 +12490,7 @@
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12458,10 +12498,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12481,20 +12521,18 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>446</v>
+        <v>104</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12543,7 +12581,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>449</v>
+        <v>106</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12555,16 +12593,16 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
@@ -12572,10 +12610,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12586,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12595,16 +12633,16 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>452</v>
+        <v>110</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>453</v>
+        <v>191</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>454</v>
+        <v>192</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12643,40 +12681,40 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>455</v>
+        <v>117</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>77</v>
@@ -12684,10 +12722,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12707,25 +12745,27 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>458</v>
+        <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>77</v>
@@ -12767,7 +12807,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>89</v>
@@ -12779,16 +12819,16 @@
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>77</v>
@@ -12796,10 +12836,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12810,7 +12850,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -12822,20 +12862,16 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12844,7 +12880,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -12859,13 +12895,11 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>321</v>
+        <v>497</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -12883,13 +12917,13 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
@@ -12904,7 +12938,7 @@
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -12912,10 +12946,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12926,7 +12960,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -12935,23 +12969,21 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12999,13 +13031,13 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
@@ -13017,12 +13049,468 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8665,10 +8665,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -890,7 +890,7 @@
     <t>Goal.lifecycleStatus</t>
   </si>
   <si>
-    <t>proposed | planned | accepted | active | on-hold | completed | cancelled | entered-in-error | rejected</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : ENPREPARATION → planned, ACTIF → active, TERMINE → completed, ANNULE → cancelled.</t>
   </si>
   <si>
     <t>The state of the goal throughout its lifecycle.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -672,7 +672,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>
@@ -942,7 +942,7 @@
 </t>
   </si>
   <si>
-    <t>TDDUI Profession</t>
+    <t>TDDUI Auteur statut</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1399,7 +1399,7 @@
     <t>There's a need to capture information about the goal that doesn't actually describe the goal.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note').value}
+    <t xml:space="preserve">pattern:extension('https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator').value}
 </t>
   </si>
   <si>
@@ -1415,23 +1415,23 @@
     <t>Goal.note.extension</t>
   </si>
   <si>
-    <t>Goal.note.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>TDDUIGoalNoteExtension</t>
+    <t>Goal.note.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>TDDUIDiscriminator</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator}
 </t>
   </si>
   <si>
-    <t>TDDUI Goal Note</t>
-  </si>
-  <si>
-    <t>Extension pour discriminer l'élément Goal.note.</t>
+    <t>TDDUI Discriminator Extension</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer les éléments CarePlan.supportingInfo et Goal.note.</t>
   </si>
   <si>
     <t>Goal.note.author[x]</t>
@@ -1509,22 +1509,22 @@
     <t>Goal.note:titreObjectif.extension</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.id</t>
+    <t>Goal.note:titreObjectif.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>Goal.note:titreObjectif.extension:TDDUIDiscriminator.id</t>
   </si>
   <si>
     <t>Goal.note.extension.id</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
+    <t>Goal.note:titreObjectif.extension:TDDUIDiscriminator.extension</t>
   </si>
   <si>
     <t>Goal.note.extension.extension</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.url</t>
+    <t>Goal.note:titreObjectif.extension:TDDUIDiscriminator.url</t>
   </si>
   <si>
     <t>Goal.note.extension.url</t>
@@ -1539,13 +1539,13 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-note</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Goal.note:titreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+    <t>Goal.note:titreObjectif.extension:TDDUIDiscriminator.value[x]</t>
   </si>
   <si>
     <t>Goal.note.extension.value[x]</t>
@@ -1557,7 +1557,15 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-note-vs</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="titreObjectif"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-objectif-note-vs</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1587,19 +1595,27 @@
     <t>Goal.note:avisUsagerObjectif.extension</t>
   </si>
   <si>
-    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.id</t>
-  </si>
-  <si>
-    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.extension</t>
-  </si>
-  <si>
-    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.url</t>
-  </si>
-  <si>
-    <t>Goal.note:avisUsagerObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIDiscriminator.id</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIDiscriminator.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIDiscriminator.url</t>
+  </si>
+  <si>
+    <t>Goal.note:avisUsagerObjectif.extension:TDDUIDiscriminator.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="avisUsagerObjectif"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Goal.note:avisUsagerObjectif.author[x]</t>
@@ -1626,19 +1642,27 @@
     <t>Goal.note:strategieMiseEnOeuvreObjectif.extension</t>
   </si>
   <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension</t>
-  </si>
-  <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.id</t>
-  </si>
-  <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.extension</t>
-  </si>
-  <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.url</t>
-  </si>
-  <si>
-    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIGoalNoteExtension.value[x]</t>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIDiscriminator</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIDiscriminator.id</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIDiscriminator.extension</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIDiscriminator.url</t>
+  </si>
+  <si>
+    <t>Goal.note:strategieMiseEnOeuvreObjectif.extension:TDDUIDiscriminator.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs"/&gt;
+    &lt;code value="strategieMiseEnOeuvreObjectif"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Goal.note:strategieMiseEnOeuvreObjectif.author[x]</t>
@@ -1995,7 +2019,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.89453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2020,9 +2044,9 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="83.765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -10378,7 +10402,7 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>495</v>
@@ -10396,7 +10420,7 @@
         <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>77</v>
@@ -10415,7 +10439,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10433,7 +10457,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10462,7 +10486,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>457</v>
@@ -10576,7 +10600,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>464</v>
@@ -10688,7 +10712,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>470</v>
@@ -10800,13 +10824,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10831,7 +10855,7 @@
         <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>443</v>
@@ -10918,7 +10942,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>449</v>
@@ -11030,7 +11054,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>450</v>
@@ -11142,7 +11166,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>450</v>
@@ -11256,7 +11280,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>483</v>
@@ -11368,7 +11392,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>485</v>
@@ -11480,7 +11504,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>487</v>
@@ -11594,7 +11618,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>494</v>
@@ -11620,7 +11644,7 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>495</v>
@@ -11638,7 +11662,7 @@
         <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>77</v>
@@ -11657,7 +11681,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11675,7 +11699,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11704,7 +11728,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>457</v>
@@ -11818,7 +11842,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>464</v>
@@ -11930,7 +11954,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>470</v>
@@ -12028,7 +12052,7 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>189</v>
@@ -12042,13 +12066,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
@@ -12073,7 +12097,7 @@
         <v>441</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>443</v>
@@ -12160,7 +12184,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>449</v>
@@ -12272,7 +12296,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>450</v>
@@ -12384,7 +12408,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>450</v>
@@ -12498,7 +12522,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>483</v>
@@ -12610,7 +12634,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>485</v>
@@ -12722,7 +12746,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>487</v>
@@ -12836,7 +12860,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>494</v>
@@ -12862,7 +12886,7 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>495</v>
@@ -12880,7 +12904,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -12899,7 +12923,7 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -12917,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12946,7 +12970,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>457</v>
@@ -13060,7 +13084,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>464</v>
@@ -13172,7 +13196,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>470</v>
@@ -13270,7 +13294,7 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>189</v>
@@ -13284,10 +13308,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13313,16 +13337,16 @@
         <v>239</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13350,7 +13374,7 @@
         <v>156</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>334</v>
@@ -13371,7 +13395,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13400,10 +13424,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13426,19 +13450,19 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O101" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13487,7 +13511,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -672,7 +672,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Goal.modifierExtension</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-goal-objectif.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
